--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>31.825501</v>
+        <v>42.409254</v>
       </c>
       <c r="H2">
-        <v>95.47650300000001</v>
+        <v>127.227762</v>
       </c>
       <c r="I2">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="J2">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N2">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q2">
-        <v>1295.541918033168</v>
+        <v>1252.18291385927</v>
       </c>
       <c r="R2">
-        <v>11659.87726229851</v>
+        <v>11269.64622473343</v>
       </c>
       <c r="S2">
-        <v>0.2289860639392657</v>
+        <v>0.1975519998607367</v>
       </c>
       <c r="T2">
-        <v>0.2289860639392656</v>
+        <v>0.1975519998607367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>31.825501</v>
+        <v>42.409254</v>
       </c>
       <c r="H3">
-        <v>95.47650300000001</v>
+        <v>127.227762</v>
       </c>
       <c r="I3">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="J3">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>119.145069</v>
       </c>
       <c r="O3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q3">
-        <v>1263.950504201523</v>
+        <v>1684.284498022842</v>
       </c>
       <c r="R3">
-        <v>11375.55453781371</v>
+        <v>15158.56048220558</v>
       </c>
       <c r="S3">
-        <v>0.2234023051994735</v>
+        <v>0.2657229764406805</v>
       </c>
       <c r="T3">
-        <v>0.2234023051994735</v>
+        <v>0.2657229764406805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>31.825501</v>
+        <v>42.409254</v>
       </c>
       <c r="H4">
-        <v>95.47650300000001</v>
+        <v>127.227762</v>
       </c>
       <c r="I4">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="J4">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N4">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q4">
-        <v>871.1353363602427</v>
+        <v>954.2427502691742</v>
       </c>
       <c r="R4">
-        <v>7840.218027242184</v>
+        <v>8588.184752422567</v>
       </c>
       <c r="S4">
-        <v>0.1539725184148255</v>
+        <v>0.1505471457738413</v>
       </c>
       <c r="T4">
-        <v>0.1539725184148255</v>
+        <v>0.1505471457738412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>14.538842</v>
       </c>
       <c r="I5">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="J5">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N5">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q5">
-        <v>197.2807827980584</v>
+        <v>143.0921149088478</v>
       </c>
       <c r="R5">
-        <v>1775.527045182526</v>
+        <v>1287.82903417963</v>
       </c>
       <c r="S5">
-        <v>0.03486923064007571</v>
+        <v>0.02257508320203944</v>
       </c>
       <c r="T5">
-        <v>0.0348692306400757</v>
+        <v>0.02257508320203944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>14.538842</v>
       </c>
       <c r="I6">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="J6">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>119.145069</v>
       </c>
       <c r="O6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q6">
         <v>192.470148141122</v>
@@ -818,10 +818,10 @@
         <v>1732.231333270098</v>
       </c>
       <c r="S6">
-        <v>0.03401895456655889</v>
+        <v>0.03036526234141236</v>
       </c>
       <c r="T6">
-        <v>0.03401895456655889</v>
+        <v>0.03036526234141236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>14.538842</v>
       </c>
       <c r="I7">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="J7">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N7">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q7">
-        <v>132.6535704387751</v>
+        <v>109.0452614878895</v>
       </c>
       <c r="R7">
-        <v>1193.882133948976</v>
+        <v>981.4073533910059</v>
       </c>
       <c r="S7">
-        <v>0.02344641924699774</v>
+        <v>0.0172036443269107</v>
       </c>
       <c r="T7">
-        <v>0.02344641924699774</v>
+        <v>0.0172036443269107</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.81429</v>
+        <v>21.83492733333334</v>
       </c>
       <c r="H8">
-        <v>47.44287</v>
+        <v>65.50478200000001</v>
       </c>
       <c r="I8">
-        <v>0.301304507992803</v>
+        <v>0.3160338880543792</v>
       </c>
       <c r="J8">
-        <v>0.3013045079928031</v>
+        <v>0.3160338880543791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N8">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O8">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P8">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q8">
-        <v>643.76286170429</v>
+        <v>644.7018127731924</v>
       </c>
       <c r="R8">
-        <v>5793.86575533861</v>
+        <v>5802.316314958731</v>
       </c>
       <c r="S8">
-        <v>0.1137846037708594</v>
+        <v>0.101712082969294</v>
       </c>
       <c r="T8">
-        <v>0.1137846037708594</v>
+        <v>0.101712082969294</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.81429</v>
+        <v>21.83492733333334</v>
       </c>
       <c r="H9">
-        <v>47.44287</v>
+        <v>65.50478200000001</v>
       </c>
       <c r="I9">
-        <v>0.301304507992803</v>
+        <v>0.3160338880543792</v>
       </c>
       <c r="J9">
-        <v>0.3013045079928031</v>
+        <v>0.3160338880543791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>119.145069</v>
       </c>
       <c r="O9">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P9">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q9">
-        <v>628.06489107867</v>
+        <v>867.1746412466622</v>
       </c>
       <c r="R9">
-        <v>5652.584019708031</v>
+        <v>7804.571771219959</v>
       </c>
       <c r="S9">
-        <v>0.1110099992170738</v>
+        <v>0.1368107508181894</v>
       </c>
       <c r="T9">
-        <v>0.1110099992170738</v>
+        <v>0.1368107508181894</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.81429</v>
+        <v>21.83492733333334</v>
       </c>
       <c r="H10">
-        <v>47.44287</v>
+        <v>65.50478200000001</v>
       </c>
       <c r="I10">
-        <v>0.301304507992803</v>
+        <v>0.3160338880543792</v>
       </c>
       <c r="J10">
-        <v>0.3013045079928031</v>
+        <v>0.3160338880543791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N10">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O10">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P10">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q10">
-        <v>432.87258348104</v>
+        <v>491.3036459091585</v>
       </c>
       <c r="R10">
-        <v>3895.85325132936</v>
+        <v>4421.732813182426</v>
       </c>
       <c r="S10">
-        <v>0.07650990500486983</v>
+        <v>0.07751105426689572</v>
       </c>
       <c r="T10">
-        <v>0.07650990500486984</v>
+        <v>0.07751105426689571</v>
       </c>
     </row>
   </sheetData>
